--- a/2SK82/list.xlsx
+++ b/2SK82/list.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="37">
   <si>
     <t xml:space="preserve">Sony 2SK82 VFET List</t>
   </si>
@@ -125,6 +125,12 @@
   </si>
   <si>
     <t xml:space="preserve">2SK82_27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2SK82_28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2SK82_29</t>
   </si>
 </sst>
 </file>
@@ -136,7 +142,7 @@
     <numFmt numFmtId="165" formatCode="0.00"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -179,12 +185,6 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <strike val="true"/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -301,7 +301,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -324,8 +324,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C18" activeCellId="1" sqref="A34:C34 A18:C18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="280" zoomScaleNormal="280" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B35" activeCellId="0" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1739,12 +1739,31 @@
       <c r="B34" s="17" t="n">
         <v>-4.336</v>
       </c>
-      <c r="C34" s="18" t="s">
+      <c r="C34" s="16" t="s">
         <v>18</v>
       </c>
     </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" s="18" t="n">
+        <v>-6.76</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="3"/>
+      <c r="A36" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" s="2" t="n">
+        <v>-7.69</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="3"/>

--- a/2SK82/list.xlsx
+++ b/2SK82/list.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="40">
   <si>
     <t xml:space="preserve">Sony 2SK82 VFET List</t>
   </si>
@@ -131,6 +131,15 @@
   </si>
   <si>
     <t xml:space="preserve">2SK82_29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2SK82_30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2SK82_31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2SK82_32</t>
   </si>
 </sst>
 </file>
@@ -228,7 +237,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -301,10 +310,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -324,8 +329,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="280" zoomScaleNormal="280" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B35" activeCellId="0" sqref="B35"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A29" colorId="64" zoomScale="280" zoomScaleNormal="280" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B40" activeCellId="0" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1747,7 +1752,7 @@
       <c r="A35" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="18" t="n">
+      <c r="B35" s="1" t="n">
         <v>-6.76</v>
       </c>
       <c r="C35" s="13" t="s">
@@ -1766,13 +1771,37 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="3"/>
+      <c r="A37" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" s="2" t="n">
+        <v>-6.42</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="3"/>
+      <c r="A38" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" s="2" t="n">
+        <v>-6.46</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="3"/>
+      <c r="A39" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" s="2" t="n">
+        <v>-6.13</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="3"/>

--- a/2SK82/list.xlsx
+++ b/2SK82/list.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="61">
   <si>
     <t xml:space="preserve">Sony 2SK82 VFET List</t>
   </si>
@@ -140,6 +140,69 @@
   </si>
   <si>
     <t xml:space="preserve">2SK82_32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2SK82_33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2SK82_34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2SK82_35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2SK82_36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2SK82_37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2SK82_38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2SK82_39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2SK82_40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2SK82_41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2SK82_42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2SK82_43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2SK82_44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2SK82_45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2SK82_46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2SK82_47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2SK82_48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2SK82_49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2SK82_50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2SK82_51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2SK82_52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2SK82_53</t>
   </si>
 </sst>
 </file>
@@ -327,10 +390,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ43"/>
+  <dimension ref="A1:AMJ60"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A29" colorId="64" zoomScale="280" zoomScaleNormal="280" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B40" activeCellId="0" sqref="B40"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A58" colorId="64" zoomScale="280" zoomScaleNormal="280" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C60" activeCellId="0" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1804,20 +1867,176 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="B40" s="3"/>
+      <c r="C40" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="B41" s="3"/>
+      <c r="C41" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="3"/>
+      <c r="A42" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
+      <c r="C42" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="3"/>
+      <c r="A43" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
+      <c r="C43" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/2SK82/list.xlsx
+++ b/2SK82/list.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="62">
   <si>
     <t xml:space="preserve">Sony 2SK82 VFET List</t>
   </si>
@@ -143,6 +143,9 @@
   </si>
   <si>
     <t xml:space="preserve">2SK82_33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">missing</t>
   </si>
   <si>
     <t xml:space="preserve">2SK82_34</t>
@@ -392,8 +395,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ60"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A58" colorId="64" zoomScale="280" zoomScaleNormal="280" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C60" activeCellId="0" sqref="C60"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A39" colorId="64" zoomScale="280" zoomScaleNormal="280" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C40" activeCellId="0" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1872,12 +1875,12 @@
       </c>
       <c r="B40" s="3"/>
       <c r="C40" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="1" t="s">
@@ -1886,7 +1889,7 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="1" t="s">
@@ -1895,7 +1898,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B43" s="3"/>
       <c r="C43" s="1" t="s">
@@ -1904,7 +1907,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>6</v>
@@ -1912,7 +1915,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>6</v>
@@ -1920,7 +1923,7 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>6</v>
@@ -1928,7 +1931,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>6</v>
@@ -1936,7 +1939,7 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>6</v>
@@ -1944,7 +1947,7 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>6</v>
@@ -1952,7 +1955,7 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>6</v>
@@ -1960,7 +1963,7 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>6</v>
@@ -1968,7 +1971,7 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>6</v>
@@ -1976,7 +1979,7 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>6</v>
@@ -1984,7 +1987,7 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>6</v>
@@ -1992,7 +1995,7 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>6</v>
@@ -2000,7 +2003,7 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>6</v>
@@ -2008,7 +2011,7 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>6</v>
@@ -2016,7 +2019,7 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>6</v>
@@ -2024,7 +2027,7 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>6</v>
@@ -2032,7 +2035,7 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>6</v>

--- a/2SK82/list.xlsx
+++ b/2SK82/list.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="68">
   <si>
     <t xml:space="preserve">Sony 2SK82 VFET List</t>
   </si>
@@ -40,7 +40,7 @@
     <t xml:space="preserve">2SK82_1</t>
   </si>
   <si>
-    <t xml:space="preserve">available</t>
+    <t xml:space="preserve">temporarily reserved</t>
   </si>
   <si>
     <t xml:space="preserve">2SK82_2</t>
@@ -206,6 +206,24 @@
   </si>
   <si>
     <t xml:space="preserve">2SK82_53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2SK82_54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2SK82_55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2SK82_56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2SK82_57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2SK82_58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2SK82_59</t>
   </si>
 </sst>
 </file>
@@ -393,17 +411,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ60"/>
+  <dimension ref="A1:AMJ66"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A39" colorId="64" zoomScale="280" zoomScaleNormal="280" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C40" activeCellId="0" sqref="C40"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="280" zoomScaleNormal="280" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="3" width="11.52"/>
   </cols>
   <sheetData>
@@ -1623,7 +1641,7 @@
       <c r="B17" s="2" t="n">
         <v>-5.97</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="13" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1645,7 +1663,7 @@
       <c r="B19" s="2" t="n">
         <v>-6.519</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="13" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1667,7 +1685,7 @@
       <c r="B21" s="2" t="n">
         <v>-7.285</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="13" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1689,7 +1707,7 @@
       <c r="B23" s="2" t="n">
         <v>-6.101</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="13" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1711,7 +1729,7 @@
       <c r="B25" s="2" t="n">
         <v>-4.964</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="13" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1733,7 +1751,7 @@
       <c r="B27" s="2" t="n">
         <v>-4.816</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="13" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1755,7 +1773,7 @@
       <c r="B29" s="2" t="n">
         <v>-7.004</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="13" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1777,7 +1795,7 @@
       <c r="B31" s="2" t="n">
         <v>-7.474</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="13" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1799,7 +1817,7 @@
       <c r="B33" s="2" t="n">
         <v>-6.425</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="13" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1832,7 +1850,7 @@
       <c r="B36" s="2" t="n">
         <v>-7.69</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="13" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1843,7 +1861,7 @@
       <c r="B37" s="2" t="n">
         <v>-6.42</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="13" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1854,7 +1872,7 @@
       <c r="B38" s="2" t="n">
         <v>-6.46</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="13" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1865,7 +1883,7 @@
       <c r="B39" s="2" t="n">
         <v>-6.13</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="13" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1883,7 +1901,7 @@
         <v>42</v>
       </c>
       <c r="B41" s="3"/>
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="13" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1892,7 +1910,7 @@
         <v>43</v>
       </c>
       <c r="B42" s="3"/>
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="13" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1901,7 +1919,7 @@
         <v>44</v>
       </c>
       <c r="B43" s="3"/>
-      <c r="C43" s="1" t="s">
+      <c r="C43" s="13" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1909,7 +1927,7 @@
       <c r="A44" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" s="13" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1917,7 +1935,7 @@
       <c r="A45" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" s="13" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1925,7 +1943,7 @@
       <c r="A46" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" s="13" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1933,7 +1951,7 @@
       <c r="A47" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" s="13" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1941,7 +1959,7 @@
       <c r="A48" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" s="13" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1949,7 +1967,7 @@
       <c r="A49" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" s="13" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1957,7 +1975,7 @@
       <c r="A50" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" s="13" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1965,7 +1983,7 @@
       <c r="A51" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" s="13" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1973,7 +1991,7 @@
       <c r="A52" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" s="13" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1981,7 +1999,7 @@
       <c r="A53" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" s="13" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1989,7 +2007,7 @@
       <c r="A54" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" s="13" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1997,7 +2015,7 @@
       <c r="A55" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" s="13" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2005,7 +2023,7 @@
       <c r="A56" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56" s="13" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2013,7 +2031,7 @@
       <c r="A57" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C57" s="13" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2021,7 +2039,7 @@
       <c r="A58" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C58" s="13" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2029,7 +2047,7 @@
       <c r="A59" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C59" s="13" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2037,7 +2055,55 @@
       <c r="A60" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C60" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C61" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C62" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C63" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C64" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C65" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C66" s="13" t="s">
         <v>6</v>
       </c>
     </row>

--- a/2SK82/list.xlsx
+++ b/2SK82/list.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sony 2SK82 List" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sony 2SK82 List" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="69">
   <si>
     <t xml:space="preserve">Sony 2SK82 VFET List</t>
   </si>
@@ -40,7 +40,7 @@
     <t xml:space="preserve">2SK82_1</t>
   </si>
   <si>
-    <t xml:space="preserve">temporarily reserved</t>
+    <t xml:space="preserve">available</t>
   </si>
   <si>
     <t xml:space="preserve">2SK82_2</t>
@@ -68,6 +68,9 @@
   </si>
   <si>
     <t xml:space="preserve">2SK82_9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reserved IG</t>
   </si>
   <si>
     <t xml:space="preserve">2SK82_10</t>
@@ -406,6 +409,112 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -413,8 +522,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ66"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="280" zoomScaleNormal="280" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A38" colorId="64" zoomScale="280" zoomScaleNormal="280" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C49" activeCellId="0" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1627,7 +1736,7 @@
         <v>-6.358</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E16" s="14"/>
       <c r="F16" s="1"/>
@@ -1636,7 +1745,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17" s="2" t="n">
         <v>-5.97</v>
@@ -1647,18 +1756,18 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18" s="17" t="n">
         <v>-5.445</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B19" s="2" t="n">
         <v>-6.519</v>
@@ -1669,7 +1778,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B20" s="2" t="n">
         <v>-4.094</v>
@@ -1680,7 +1789,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B21" s="2" t="n">
         <v>-7.285</v>
@@ -1691,7 +1800,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B22" s="2" t="n">
         <v>-5.612</v>
@@ -1702,7 +1811,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B23" s="2" t="n">
         <v>-6.101</v>
@@ -1713,7 +1822,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B24" s="2" t="n">
         <v>-6.62</v>
@@ -1724,7 +1833,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B25" s="2" t="n">
         <v>-4.964</v>
@@ -1735,7 +1844,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B26" s="2" t="n">
         <v>-7.778</v>
@@ -1746,7 +1855,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B27" s="2" t="n">
         <v>-4.816</v>
@@ -1757,7 +1866,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B28" s="2" t="n">
         <v>-6.745</v>
@@ -1768,7 +1877,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B29" s="2" t="n">
         <v>-7.004</v>
@@ -1779,7 +1888,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B30" s="2" t="n">
         <v>-7.481</v>
@@ -1790,7 +1899,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B31" s="2" t="n">
         <v>-7.474</v>
@@ -1801,7 +1910,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B32" s="2" t="n">
         <v>-5.845</v>
@@ -1812,7 +1921,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B33" s="2" t="n">
         <v>-6.425</v>
@@ -1823,18 +1932,18 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B34" s="17" t="n">
         <v>-4.336</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B35" s="1" t="n">
         <v>-6.76</v>
@@ -1845,7 +1954,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B36" s="2" t="n">
         <v>-7.69</v>
@@ -1856,7 +1965,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B37" s="2" t="n">
         <v>-6.42</v>
@@ -1867,7 +1976,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B38" s="2" t="n">
         <v>-6.46</v>
@@ -1878,7 +1987,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B39" s="2" t="n">
         <v>-6.13</v>
@@ -1889,16 +1998,16 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B40" s="3"/>
       <c r="C40" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="13" t="s">
@@ -1907,7 +2016,7 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="13" t="s">
@@ -1916,7 +2025,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B43" s="3"/>
       <c r="C43" s="13" t="s">
@@ -1925,7 +2034,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C44" s="13" t="s">
         <v>6</v>
@@ -1933,7 +2042,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C45" s="13" t="s">
         <v>6</v>
@@ -1941,7 +2050,7 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C46" s="13" t="s">
         <v>6</v>
@@ -1949,7 +2058,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C47" s="13" t="s">
         <v>6</v>
@@ -1957,7 +2066,7 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C48" s="13" t="s">
         <v>6</v>
@@ -1965,15 +2074,15 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C50" s="13" t="s">
         <v>6</v>
@@ -1981,7 +2090,7 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C51" s="13" t="s">
         <v>6</v>
@@ -1989,7 +2098,7 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C52" s="13" t="s">
         <v>6</v>
@@ -1997,7 +2106,7 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C53" s="13" t="s">
         <v>6</v>
@@ -2005,7 +2114,7 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C54" s="13" t="s">
         <v>6</v>
@@ -2013,7 +2122,7 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C55" s="13" t="s">
         <v>6</v>
@@ -2021,7 +2130,7 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C56" s="13" t="s">
         <v>6</v>
@@ -2029,7 +2138,7 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C57" s="13" t="s">
         <v>6</v>
@@ -2037,7 +2146,7 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C58" s="13" t="s">
         <v>6</v>
@@ -2045,7 +2154,7 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C59" s="13" t="s">
         <v>6</v>
@@ -2053,7 +2162,7 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C60" s="13" t="s">
         <v>6</v>
@@ -2061,7 +2170,7 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C61" s="13" t="s">
         <v>6</v>
@@ -2069,7 +2178,7 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C62" s="13" t="s">
         <v>6</v>
@@ -2077,7 +2186,7 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C63" s="13" t="s">
         <v>6</v>
@@ -2085,7 +2194,7 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C64" s="13" t="s">
         <v>6</v>
@@ -2093,7 +2202,7 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C65" s="13" t="s">
         <v>6</v>
@@ -2101,7 +2210,7 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C66" s="13" t="s">
         <v>6</v>

--- a/2SK82/list.xlsx
+++ b/2SK82/list.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="68">
   <si>
     <t xml:space="preserve">Sony 2SK82 VFET List</t>
   </si>
@@ -68,9 +68,6 @@
   </si>
   <si>
     <t xml:space="preserve">2SK82_9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reserved IG</t>
   </si>
   <si>
     <t xml:space="preserve">2SK82_10</t>
@@ -522,8 +519,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ66"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A38" colorId="64" zoomScale="280" zoomScaleNormal="280" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C49" activeCellId="0" sqref="C49"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A29" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C46" activeCellId="0" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1729,14 +1726,14 @@
       <c r="H15" s="1"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="2" t="n">
+      <c r="B16" s="17" t="n">
         <v>-6.358</v>
       </c>
-      <c r="C16" s="13" t="s">
-        <v>16</v>
+      <c r="C16" s="16" t="s">
+        <v>11</v>
       </c>
       <c r="E16" s="14"/>
       <c r="F16" s="1"/>
@@ -1745,7 +1742,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" s="2" t="n">
         <v>-5.97</v>
@@ -1756,18 +1753,18 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" s="17" t="n">
         <v>-5.445</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19" s="2" t="n">
         <v>-6.519</v>
@@ -1778,7 +1775,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20" s="2" t="n">
         <v>-4.094</v>
@@ -1789,7 +1786,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B21" s="2" t="n">
         <v>-7.285</v>
@@ -1800,7 +1797,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B22" s="2" t="n">
         <v>-5.612</v>
@@ -1811,7 +1808,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" s="2" t="n">
         <v>-6.101</v>
@@ -1822,7 +1819,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24" s="2" t="n">
         <v>-6.62</v>
@@ -1833,7 +1830,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B25" s="2" t="n">
         <v>-4.964</v>
@@ -1844,7 +1841,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B26" s="2" t="n">
         <v>-7.778</v>
@@ -1855,7 +1852,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27" s="2" t="n">
         <v>-4.816</v>
@@ -1866,7 +1863,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28" s="2" t="n">
         <v>-6.745</v>
@@ -1877,7 +1874,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B29" s="2" t="n">
         <v>-7.004</v>
@@ -1888,7 +1885,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B30" s="2" t="n">
         <v>-7.481</v>
@@ -1899,7 +1896,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B31" s="2" t="n">
         <v>-7.474</v>
@@ -1910,7 +1907,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B32" s="2" t="n">
         <v>-5.845</v>
@@ -1921,7 +1918,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B33" s="2" t="n">
         <v>-6.425</v>
@@ -1932,18 +1929,18 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B34" s="17" t="n">
         <v>-4.336</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B35" s="1" t="n">
         <v>-6.76</v>
@@ -1954,7 +1951,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B36" s="2" t="n">
         <v>-7.69</v>
@@ -1965,7 +1962,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B37" s="2" t="n">
         <v>-6.42</v>
@@ -1976,7 +1973,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B38" s="2" t="n">
         <v>-6.46</v>
@@ -1987,7 +1984,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B39" s="2" t="n">
         <v>-6.13</v>
@@ -1998,16 +1995,16 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B40" s="3"/>
       <c r="C40" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="13" t="s">
@@ -2016,7 +2013,7 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="13" t="s">
@@ -2025,7 +2022,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B43" s="3"/>
       <c r="C43" s="13" t="s">
@@ -2034,7 +2031,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C44" s="13" t="s">
         <v>6</v>
@@ -2042,7 +2039,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C45" s="13" t="s">
         <v>6</v>
@@ -2050,7 +2047,7 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C46" s="13" t="s">
         <v>6</v>
@@ -2058,7 +2055,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C47" s="13" t="s">
         <v>6</v>
@@ -2066,23 +2063,24 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="C48" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C49" s="13" t="s">
-        <v>16</v>
+      <c r="B49" s="17"/>
+      <c r="C49" s="16" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C50" s="13" t="s">
         <v>6</v>
@@ -2090,7 +2088,7 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C51" s="13" t="s">
         <v>6</v>
@@ -2098,7 +2096,7 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C52" s="13" t="s">
         <v>6</v>
@@ -2106,7 +2104,7 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C53" s="13" t="s">
         <v>6</v>
@@ -2114,7 +2112,7 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C54" s="13" t="s">
         <v>6</v>
@@ -2122,7 +2120,7 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C55" s="13" t="s">
         <v>6</v>
@@ -2130,7 +2128,7 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C56" s="13" t="s">
         <v>6</v>
@@ -2138,7 +2136,7 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C57" s="13" t="s">
         <v>6</v>
@@ -2146,7 +2144,7 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C58" s="13" t="s">
         <v>6</v>
@@ -2154,7 +2152,7 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C59" s="13" t="s">
         <v>6</v>
@@ -2162,7 +2160,7 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C60" s="13" t="s">
         <v>6</v>
@@ -2170,7 +2168,7 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C61" s="13" t="s">
         <v>6</v>
@@ -2178,7 +2176,7 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C62" s="13" t="s">
         <v>6</v>
@@ -2186,7 +2184,7 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C63" s="13" t="s">
         <v>6</v>
@@ -2194,7 +2192,7 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C64" s="13" t="s">
         <v>6</v>
@@ -2202,7 +2200,7 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C65" s="13" t="s">
         <v>6</v>
@@ -2210,7 +2208,7 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C66" s="13" t="s">
         <v>6</v>
